--- a/Documento de casos de pruebas web.xlsx
+++ b/Documento de casos de pruebas web.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a14bdbe45e0146a/Documentos/GitHub/portafolio/Documentación (Avances)/Primera Iteración/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torre\OneDrive\Documentos\GitHub\finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{CA0E19D1-F59F-4700-A5F5-0A468BFC9E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -3229,6 +3229,36 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3247,32 +3277,17 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3288,21 +3303,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3839,10 +3839,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1">
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="135"/>
+      <c r="C1" s="130"/>
       <c r="D1" s="62"/>
       <c r="E1" s="62"/>
       <c r="F1" s="62"/>
@@ -3868,11 +3868,11 @@
       <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:15" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="55"/>
       <c r="F3" s="55"/>
       <c r="G3" s="55"/>
@@ -3881,11 +3881,11 @@
       <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:15" s="43" customFormat="1" ht="16.8" thickBot="1">
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="123"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="133"/>
       <c r="E4" s="56"/>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
@@ -3908,10 +3908,10 @@
       <c r="A6" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="126" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="132"/>
+      <c r="C6" s="127"/>
       <c r="D6" s="54" t="s">
         <v>138</v>
       </c>
@@ -3926,10 +3926,10 @@
       <c r="A7" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="50"/>
       <c r="E7" s="47"/>
       <c r="F7" s="44"/>
@@ -3942,10 +3942,10 @@
       <c r="A8" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="130"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="46"/>
       <c r="E8" s="47"/>
       <c r="F8" s="44"/>
@@ -3958,10 +3958,10 @@
       <c r="A9" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="130"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="46"/>
       <c r="E9" s="47"/>
       <c r="F9" s="44"/>
@@ -3974,10 +3974,10 @@
       <c r="A10" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="130"/>
+      <c r="C10" s="123"/>
       <c r="D10" s="46"/>
       <c r="E10" s="47"/>
       <c r="F10" s="44"/>
@@ -3990,10 +3990,10 @@
       <c r="A11" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="130"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="46"/>
       <c r="E11" s="47"/>
       <c r="F11" s="44"/>
@@ -4006,10 +4006,10 @@
       <c r="A12" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="130"/>
+      <c r="C12" s="123"/>
       <c r="D12" s="46"/>
       <c r="E12" s="47"/>
       <c r="F12" s="44"/>
@@ -4022,10 +4022,10 @@
       <c r="A13" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="130"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="46"/>
       <c r="E13" s="47"/>
       <c r="F13" s="44"/>
@@ -4038,10 +4038,10 @@
       <c r="A14" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="130"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="46"/>
       <c r="E14" s="47"/>
       <c r="F14" s="44"/>
@@ -4054,10 +4054,10 @@
       <c r="A15" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="122" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="130"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="46"/>
       <c r="E15" s="47"/>
       <c r="F15" s="44"/>
@@ -4070,10 +4070,10 @@
       <c r="A16" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="130"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="46"/>
       <c r="E16" s="47"/>
       <c r="F16" s="44"/>
@@ -4086,10 +4086,10 @@
       <c r="A17" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="130"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="46"/>
       <c r="E17" s="47"/>
       <c r="F17" s="44"/>
@@ -4102,10 +4102,10 @@
       <c r="A18" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="129" t="s">
+      <c r="B18" s="122" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="130"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="46"/>
       <c r="E18" s="47"/>
       <c r="F18" s="44"/>
@@ -4118,10 +4118,10 @@
       <c r="A19" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="122" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="130"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="46"/>
       <c r="E19" s="47"/>
       <c r="F19" s="44"/>
@@ -4134,10 +4134,10 @@
       <c r="A20" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="130"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="46"/>
       <c r="E20" s="47"/>
       <c r="F20" s="44"/>
@@ -4150,10 +4150,10 @@
       <c r="A21" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="130"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="46"/>
       <c r="E21" s="47"/>
       <c r="F21" s="44"/>
@@ -4166,10 +4166,10 @@
       <c r="A22" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="134"/>
+      <c r="C22" s="125"/>
       <c r="D22" s="45"/>
       <c r="E22" s="47"/>
       <c r="F22" s="44"/>
@@ -4193,10 +4193,10 @@
       <c r="A24" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="131" t="s">
+      <c r="B24" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="132"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="49"/>
       <c r="E24" s="47"/>
       <c r="F24" s="44"/>
@@ -4209,10 +4209,10 @@
       <c r="A25" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="128"/>
+      <c r="C25" s="129"/>
       <c r="D25" s="48"/>
       <c r="E25" s="47"/>
       <c r="F25" s="44"/>
@@ -4225,10 +4225,10 @@
       <c r="A26" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="129" t="s">
+      <c r="B26" s="122" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="130"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="46"/>
       <c r="E26" s="47"/>
       <c r="F26" s="44"/>
@@ -4241,10 +4241,10 @@
       <c r="A27" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="130"/>
+      <c r="C27" s="123"/>
       <c r="D27" s="46"/>
       <c r="E27" s="47"/>
       <c r="F27" s="44"/>
@@ -4257,10 +4257,10 @@
       <c r="A28" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="130"/>
+      <c r="C28" s="123"/>
       <c r="D28" s="46"/>
       <c r="E28" s="47"/>
       <c r="F28" s="44"/>
@@ -4273,10 +4273,10 @@
       <c r="A29" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="129" t="s">
+      <c r="B29" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="130"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="46"/>
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
@@ -4289,10 +4289,10 @@
       <c r="A30" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="129" t="s">
+      <c r="B30" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="130"/>
+      <c r="C30" s="123"/>
       <c r="D30" s="46"/>
       <c r="E30" s="44"/>
       <c r="F30" s="44"/>
@@ -4305,10 +4305,10 @@
       <c r="A31" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="129" t="s">
+      <c r="B31" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="130"/>
+      <c r="C31" s="123"/>
       <c r="D31" s="46"/>
       <c r="E31" s="44"/>
       <c r="F31" s="44"/>
@@ -4321,10 +4321,10 @@
       <c r="A32" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="129" t="s">
+      <c r="B32" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="130"/>
+      <c r="C32" s="123"/>
       <c r="D32" s="46"/>
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
@@ -4337,10 +4337,10 @@
       <c r="A33" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="129" t="s">
+      <c r="B33" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="130"/>
+      <c r="C33" s="123"/>
       <c r="D33" s="46"/>
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
@@ -4353,10 +4353,10 @@
       <c r="A34" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="129" t="s">
+      <c r="B34" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="130"/>
+      <c r="C34" s="123"/>
       <c r="D34" s="46"/>
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
@@ -4369,10 +4369,10 @@
       <c r="A35" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="129" t="s">
+      <c r="B35" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="130"/>
+      <c r="C35" s="123"/>
       <c r="D35" s="46"/>
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
@@ -4385,10 +4385,10 @@
       <c r="A36" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="129" t="s">
+      <c r="B36" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="130"/>
+      <c r="C36" s="123"/>
       <c r="D36" s="46"/>
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
@@ -4401,10 +4401,10 @@
       <c r="A37" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="129" t="s">
+      <c r="B37" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="130"/>
+      <c r="C37" s="123"/>
       <c r="D37" s="46"/>
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
@@ -4417,10 +4417,10 @@
       <c r="A38" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="129" t="s">
+      <c r="B38" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="130"/>
+      <c r="C38" s="123"/>
       <c r="D38" s="46"/>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
@@ -4433,10 +4433,10 @@
       <c r="A39" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="129" t="s">
+      <c r="B39" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="130"/>
+      <c r="C39" s="123"/>
       <c r="D39" s="46"/>
       <c r="E39" s="44"/>
       <c r="F39" s="44"/>
@@ -4449,10 +4449,10 @@
       <c r="A40" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="129" t="s">
+      <c r="B40" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="130"/>
+      <c r="C40" s="123"/>
       <c r="D40" s="46"/>
       <c r="E40" s="44"/>
       <c r="F40" s="44"/>
@@ -4465,10 +4465,10 @@
       <c r="A41" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="133" t="s">
+      <c r="B41" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="134"/>
+      <c r="C41" s="125"/>
       <c r="D41" s="45"/>
       <c r="E41" s="44"/>
       <c r="F41" s="44"/>
@@ -4492,10 +4492,10 @@
       <c r="A43" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="131" t="s">
+      <c r="B43" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="132"/>
+      <c r="C43" s="127"/>
       <c r="D43" s="40"/>
       <c r="E43" s="44"/>
       <c r="F43" s="44"/>
@@ -4508,10 +4508,10 @@
       <c r="A44" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="127" t="s">
+      <c r="B44" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="128"/>
+      <c r="C44" s="129"/>
       <c r="D44" s="38"/>
       <c r="E44" s="44"/>
       <c r="F44" s="44"/>
@@ -4524,10 +4524,10 @@
       <c r="A45" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="129" t="s">
+      <c r="B45" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="130"/>
+      <c r="C45" s="123"/>
       <c r="D45" s="37"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -4540,10 +4540,10 @@
       <c r="A46" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="129" t="s">
+      <c r="B46" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="130"/>
+      <c r="C46" s="123"/>
       <c r="D46" s="36"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -4556,10 +4556,10 @@
       <c r="A47" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="129" t="s">
+      <c r="B47" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="130"/>
+      <c r="C47" s="123"/>
       <c r="D47" s="37"/>
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
@@ -4572,10 +4572,10 @@
       <c r="A48" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="129" t="s">
+      <c r="B48" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="130"/>
+      <c r="C48" s="123"/>
       <c r="D48" s="37"/>
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
@@ -4588,10 +4588,10 @@
       <c r="A49" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="129" t="s">
+      <c r="B49" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="130"/>
+      <c r="C49" s="123"/>
       <c r="D49" s="37"/>
       <c r="E49" s="31"/>
       <c r="F49" s="31"/>
@@ -4604,10 +4604,10 @@
       <c r="A50" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="129" t="s">
+      <c r="B50" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="130"/>
+      <c r="C50" s="123"/>
       <c r="D50" s="37"/>
       <c r="E50" s="31"/>
       <c r="F50" s="31"/>
@@ -4620,10 +4620,10 @@
       <c r="A51" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="129" t="s">
+      <c r="B51" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="130"/>
+      <c r="C51" s="123"/>
       <c r="D51" s="37"/>
       <c r="E51" s="31"/>
       <c r="F51" s="31"/>
@@ -4636,10 +4636,10 @@
       <c r="A52" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="129" t="s">
+      <c r="B52" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="130"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="37"/>
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
@@ -4652,10 +4652,10 @@
       <c r="A53" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="129" t="s">
+      <c r="B53" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="130"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="37"/>
       <c r="E53" s="31"/>
       <c r="F53" s="31"/>
@@ -4668,10 +4668,10 @@
       <c r="A54" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="129" t="s">
+      <c r="B54" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="130"/>
+      <c r="C54" s="123"/>
       <c r="D54" s="37"/>
       <c r="E54" s="31"/>
       <c r="F54" s="31"/>
@@ -4684,10 +4684,10 @@
       <c r="A55" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="129" t="s">
+      <c r="B55" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="130"/>
+      <c r="C55" s="123"/>
       <c r="D55" s="37"/>
       <c r="E55" s="31"/>
       <c r="F55" s="31"/>
@@ -4700,10 +4700,10 @@
       <c r="A56" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="129" t="s">
+      <c r="B56" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="130"/>
+      <c r="C56" s="123"/>
       <c r="D56" s="37"/>
       <c r="E56" s="31"/>
       <c r="F56" s="31"/>
@@ -4716,10 +4716,10 @@
       <c r="A57" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="129" t="s">
+      <c r="B57" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="130"/>
+      <c r="C57" s="123"/>
       <c r="D57" s="37"/>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
@@ -4732,10 +4732,10 @@
       <c r="A58" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="133" t="s">
+      <c r="B58" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="134"/>
+      <c r="C58" s="125"/>
       <c r="D58" s="33"/>
       <c r="E58" s="31"/>
       <c r="F58" s="31"/>
@@ -4759,40 +4759,40 @@
       <c r="A60" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="131" t="s">
+      <c r="B60" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="132"/>
+      <c r="C60" s="127"/>
       <c r="D60" s="40"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1">
       <c r="A61" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="127" t="s">
+      <c r="B61" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="128"/>
+      <c r="C61" s="129"/>
       <c r="D61" s="37"/>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1">
       <c r="A62" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="129" t="s">
+      <c r="B62" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="130"/>
+      <c r="C62" s="123"/>
       <c r="D62" s="37"/>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A63" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="133" t="s">
+      <c r="B63" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="134"/>
+      <c r="C63" s="125"/>
       <c r="D63" s="33"/>
     </row>
     <row r="64" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1"/>
@@ -4800,60 +4800,60 @@
       <c r="A65" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="131" t="s">
+      <c r="B65" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="132"/>
+      <c r="C65" s="127"/>
       <c r="D65" s="40"/>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
       <c r="A66" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="127" t="s">
+      <c r="B66" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="128"/>
+      <c r="C66" s="129"/>
       <c r="D66" s="42"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
       <c r="A67" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="129" t="s">
+      <c r="B67" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="130"/>
+      <c r="C67" s="123"/>
       <c r="D67" s="37"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
       <c r="A68" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="129" t="s">
+      <c r="B68" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="130"/>
+      <c r="C68" s="123"/>
       <c r="D68" s="37"/>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1">
       <c r="A69" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B69" s="129" t="s">
+      <c r="B69" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="130"/>
+      <c r="C69" s="123"/>
       <c r="D69" s="37"/>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A70" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="133" t="s">
+      <c r="B70" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="134"/>
+      <c r="C70" s="125"/>
       <c r="D70" s="33"/>
     </row>
     <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1"/>
@@ -4861,50 +4861,50 @@
       <c r="A72" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="131" t="s">
+      <c r="B72" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="132"/>
+      <c r="C72" s="127"/>
       <c r="D72" s="40"/>
     </row>
     <row r="73" spans="1:4" ht="13.8">
       <c r="A73" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="127"/>
-      <c r="C73" s="128"/>
+      <c r="B73" s="128"/>
+      <c r="C73" s="129"/>
       <c r="D73" s="38"/>
     </row>
     <row r="74" spans="1:4" ht="13.8">
       <c r="A74" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B74" s="129"/>
-      <c r="C74" s="130"/>
+      <c r="B74" s="122"/>
+      <c r="C74" s="123"/>
       <c r="D74" s="35"/>
     </row>
     <row r="75" spans="1:4" ht="13.8">
       <c r="A75" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B75" s="129"/>
-      <c r="C75" s="130"/>
+      <c r="B75" s="122"/>
+      <c r="C75" s="123"/>
       <c r="D75" s="37"/>
     </row>
     <row r="76" spans="1:4" ht="13.8">
       <c r="A76" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B76" s="129"/>
-      <c r="C76" s="130"/>
+      <c r="B76" s="122"/>
+      <c r="C76" s="123"/>
       <c r="D76" s="35"/>
     </row>
     <row r="77" spans="1:4" ht="14.4" thickBot="1">
       <c r="A77" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="133"/>
-      <c r="C77" s="134"/>
+      <c r="B77" s="124"/>
+      <c r="C77" s="125"/>
       <c r="D77" s="33"/>
     </row>
     <row r="78" spans="1:4" ht="13.8">
@@ -4919,12 +4919,54 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
@@ -4941,54 +4983,12 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
   </mergeCells>
   <pageMargins left="0.67" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup scale="57" orientation="portrait" r:id="rId1"/>
@@ -5000,8 +5000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="13.2"/>
@@ -5041,10 +5041,10 @@
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="138"/>
+      <c r="D2" s="143"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -5126,10 +5126,10 @@
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="137"/>
+      <c r="B6" s="142"/>
       <c r="C6" s="64" t="s">
         <v>598</v>
       </c>
@@ -5144,10 +5144,10 @@
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="137"/>
+      <c r="B7" s="142"/>
       <c r="C7" s="64" t="s">
         <v>600</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="65"/>
-      <c r="C9" s="145">
+      <c r="C9" s="121">
         <v>43808</v>
       </c>
       <c r="D9" s="65"/>
@@ -5245,13 +5245,13 @@
       <c r="F12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="139" t="s">
+      <c r="G12" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -5322,11 +5322,11 @@
       <c r="K14" s="93" t="s">
         <v>531</v>
       </c>
-      <c r="L14" s="141"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="142"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
@@ -5360,11 +5360,11 @@
       <c r="K15" s="94" t="s">
         <v>530</v>
       </c>
-      <c r="L15" s="141"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="142"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="140"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
@@ -5550,11 +5550,11 @@
       <c r="K20" s="94" t="s">
         <v>534</v>
       </c>
-      <c r="L20" s="141"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="142"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="140"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="140"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
@@ -5588,11 +5588,11 @@
       <c r="K21" s="93" t="s">
         <v>535</v>
       </c>
-      <c r="L21" s="141"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="142"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="140"/>
+      <c r="N21" s="140"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="140"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
@@ -5626,11 +5626,11 @@
       <c r="K22" s="94" t="s">
         <v>536</v>
       </c>
-      <c r="L22" s="143"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="138"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
@@ -5664,11 +5664,11 @@
       <c r="K23" s="94" t="s">
         <v>537</v>
       </c>
-      <c r="L23" s="143"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="144"/>
-      <c r="O23" s="144"/>
-      <c r="P23" s="144"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
@@ -5702,11 +5702,11 @@
       <c r="K24" s="94" t="s">
         <v>538</v>
       </c>
-      <c r="L24" s="143"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="144"/>
-      <c r="O24" s="144"/>
-      <c r="P24" s="144"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="138"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
@@ -5740,11 +5740,11 @@
       <c r="K25" s="94" t="s">
         <v>539</v>
       </c>
-      <c r="L25" s="143"/>
-      <c r="M25" s="144"/>
-      <c r="N25" s="144"/>
-      <c r="O25" s="144"/>
-      <c r="P25" s="144"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="138"/>
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
       <c r="S25" s="19"/>
@@ -5778,11 +5778,11 @@
       <c r="K26" s="94" t="s">
         <v>534</v>
       </c>
-      <c r="L26" s="141"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="142"/>
-      <c r="O26" s="142"/>
-      <c r="P26" s="142"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="140"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
@@ -5816,11 +5816,11 @@
       <c r="K27" s="94" t="s">
         <v>540</v>
       </c>
-      <c r="L27" s="141"/>
-      <c r="M27" s="142"/>
-      <c r="N27" s="142"/>
-      <c r="O27" s="142"/>
-      <c r="P27" s="142"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="140"/>
+      <c r="P27" s="140"/>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
@@ -5854,11 +5854,11 @@
       <c r="K28" s="94" t="s">
         <v>536</v>
       </c>
-      <c r="L28" s="141"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="142"/>
-      <c r="O28" s="142"/>
-      <c r="P28" s="142"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="140"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
@@ -5892,11 +5892,11 @@
       <c r="K29" s="94" t="s">
         <v>537</v>
       </c>
-      <c r="L29" s="141"/>
-      <c r="M29" s="142"/>
-      <c r="N29" s="142"/>
-      <c r="O29" s="142"/>
-      <c r="P29" s="142"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="140"/>
+      <c r="P29" s="140"/>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
@@ -5930,11 +5930,11 @@
       <c r="K30" s="94" t="s">
         <v>538</v>
       </c>
-      <c r="L30" s="141"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="142"/>
-      <c r="P30" s="142"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="140"/>
+      <c r="N30" s="140"/>
+      <c r="O30" s="140"/>
+      <c r="P30" s="140"/>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
@@ -5968,11 +5968,11 @@
       <c r="K31" s="94" t="s">
         <v>541</v>
       </c>
-      <c r="L31" s="141"/>
-      <c r="M31" s="142"/>
-      <c r="N31" s="142"/>
-      <c r="O31" s="142"/>
-      <c r="P31" s="142"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="140"/>
+      <c r="N31" s="140"/>
+      <c r="O31" s="140"/>
+      <c r="P31" s="140"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
@@ -6006,11 +6006,11 @@
       <c r="K32" s="94" t="s">
         <v>542</v>
       </c>
-      <c r="L32" s="141"/>
-      <c r="M32" s="142"/>
-      <c r="N32" s="142"/>
-      <c r="O32" s="142"/>
-      <c r="P32" s="142"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="140"/>
+      <c r="N32" s="140"/>
+      <c r="O32" s="140"/>
+      <c r="P32" s="140"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
@@ -6044,11 +6044,11 @@
       <c r="K33" s="94" t="s">
         <v>543</v>
       </c>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
-      <c r="N33" s="142"/>
-      <c r="O33" s="142"/>
-      <c r="P33" s="142"/>
+      <c r="L33" s="139"/>
+      <c r="M33" s="140"/>
+      <c r="N33" s="140"/>
+      <c r="O33" s="140"/>
+      <c r="P33" s="140"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
@@ -6082,11 +6082,11 @@
       <c r="K34" s="94" t="s">
         <v>544</v>
       </c>
-      <c r="L34" s="141"/>
-      <c r="M34" s="142"/>
-      <c r="N34" s="142"/>
-      <c r="O34" s="142"/>
-      <c r="P34" s="142"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="140"/>
+      <c r="O34" s="140"/>
+      <c r="P34" s="140"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
@@ -6120,11 +6120,11 @@
       <c r="K35" s="94" t="s">
         <v>545</v>
       </c>
-      <c r="L35" s="141"/>
-      <c r="M35" s="142"/>
-      <c r="N35" s="142"/>
-      <c r="O35" s="142"/>
-      <c r="P35" s="142"/>
+      <c r="L35" s="139"/>
+      <c r="M35" s="140"/>
+      <c r="N35" s="140"/>
+      <c r="O35" s="140"/>
+      <c r="P35" s="140"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
       <c r="S35" s="19"/>
@@ -6156,11 +6156,11 @@
       <c r="K36" s="94" t="s">
         <v>546</v>
       </c>
-      <c r="L36" s="141"/>
-      <c r="M36" s="142"/>
-      <c r="N36" s="142"/>
-      <c r="O36" s="142"/>
-      <c r="P36" s="142"/>
+      <c r="L36" s="139"/>
+      <c r="M36" s="140"/>
+      <c r="N36" s="140"/>
+      <c r="O36" s="140"/>
+      <c r="P36" s="140"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
       <c r="S36" s="19"/>
@@ -6194,11 +6194,11 @@
       <c r="K37" s="94" t="s">
         <v>547</v>
       </c>
-      <c r="L37" s="141"/>
-      <c r="M37" s="142"/>
-      <c r="N37" s="142"/>
-      <c r="O37" s="142"/>
-      <c r="P37" s="142"/>
+      <c r="L37" s="139"/>
+      <c r="M37" s="140"/>
+      <c r="N37" s="140"/>
+      <c r="O37" s="140"/>
+      <c r="P37" s="140"/>
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
       <c r="S37" s="19"/>
@@ -6232,11 +6232,11 @@
       <c r="K38" s="94" t="s">
         <v>540</v>
       </c>
-      <c r="L38" s="143"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="144"/>
-      <c r="O38" s="144"/>
-      <c r="P38" s="144"/>
+      <c r="L38" s="137"/>
+      <c r="M38" s="138"/>
+      <c r="N38" s="138"/>
+      <c r="O38" s="138"/>
+      <c r="P38" s="138"/>
       <c r="Q38" s="19"/>
       <c r="R38" s="19"/>
       <c r="S38" s="19"/>
@@ -6268,11 +6268,11 @@
       <c r="K39" s="94" t="s">
         <v>548</v>
       </c>
-      <c r="L39" s="143"/>
-      <c r="M39" s="144"/>
-      <c r="N39" s="144"/>
-      <c r="O39" s="144"/>
-      <c r="P39" s="144"/>
+      <c r="L39" s="137"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="138"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="138"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
       <c r="S39" s="19"/>
@@ -6306,11 +6306,11 @@
       <c r="K40" s="94" t="s">
         <v>549</v>
       </c>
-      <c r="L40" s="143"/>
-      <c r="M40" s="144"/>
-      <c r="N40" s="144"/>
-      <c r="O40" s="144"/>
-      <c r="P40" s="144"/>
+      <c r="L40" s="137"/>
+      <c r="M40" s="138"/>
+      <c r="N40" s="138"/>
+      <c r="O40" s="138"/>
+      <c r="P40" s="138"/>
       <c r="Q40" s="19"/>
       <c r="R40" s="19"/>
       <c r="S40" s="19"/>
@@ -6344,11 +6344,11 @@
       <c r="K41" s="94" t="s">
         <v>536</v>
       </c>
-      <c r="L41" s="143"/>
-      <c r="M41" s="144"/>
-      <c r="N41" s="144"/>
-      <c r="O41" s="144"/>
-      <c r="P41" s="144"/>
+      <c r="L41" s="137"/>
+      <c r="M41" s="138"/>
+      <c r="N41" s="138"/>
+      <c r="O41" s="138"/>
+      <c r="P41" s="138"/>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
@@ -6382,11 +6382,11 @@
       <c r="K42" s="94" t="s">
         <v>364</v>
       </c>
-      <c r="L42" s="143"/>
-      <c r="M42" s="144"/>
-      <c r="N42" s="144"/>
-      <c r="O42" s="144"/>
-      <c r="P42" s="144"/>
+      <c r="L42" s="137"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="138"/>
+      <c r="O42" s="138"/>
+      <c r="P42" s="138"/>
       <c r="Q42" s="19"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
@@ -6420,11 +6420,11 @@
       <c r="K43" s="94" t="s">
         <v>547</v>
       </c>
-      <c r="L43" s="143"/>
-      <c r="M43" s="144"/>
-      <c r="N43" s="144"/>
-      <c r="O43" s="144"/>
-      <c r="P43" s="144"/>
+      <c r="L43" s="137"/>
+      <c r="M43" s="138"/>
+      <c r="N43" s="138"/>
+      <c r="O43" s="138"/>
+      <c r="P43" s="138"/>
       <c r="Q43" s="19"/>
       <c r="R43" s="19"/>
       <c r="S43" s="19"/>
@@ -6458,11 +6458,11 @@
       <c r="K44" s="94" t="s">
         <v>367</v>
       </c>
-      <c r="L44" s="143"/>
-      <c r="M44" s="144"/>
-      <c r="N44" s="144"/>
-      <c r="O44" s="144"/>
-      <c r="P44" s="144"/>
+      <c r="L44" s="137"/>
+      <c r="M44" s="138"/>
+      <c r="N44" s="138"/>
+      <c r="O44" s="138"/>
+      <c r="P44" s="138"/>
       <c r="Q44" s="19"/>
       <c r="R44" s="19"/>
       <c r="S44" s="19"/>
@@ -6496,11 +6496,11 @@
       <c r="K45" s="94" t="s">
         <v>368</v>
       </c>
-      <c r="L45" s="143"/>
-      <c r="M45" s="144"/>
-      <c r="N45" s="144"/>
-      <c r="O45" s="144"/>
-      <c r="P45" s="144"/>
+      <c r="L45" s="137"/>
+      <c r="M45" s="138"/>
+      <c r="N45" s="138"/>
+      <c r="O45" s="138"/>
+      <c r="P45" s="138"/>
       <c r="Q45" s="19"/>
       <c r="R45" s="19"/>
       <c r="S45" s="19"/>
@@ -6534,11 +6534,11 @@
       <c r="K46" s="94" t="s">
         <v>371</v>
       </c>
-      <c r="L46" s="143"/>
-      <c r="M46" s="144"/>
-      <c r="N46" s="144"/>
-      <c r="O46" s="144"/>
-      <c r="P46" s="144"/>
+      <c r="L46" s="137"/>
+      <c r="M46" s="138"/>
+      <c r="N46" s="138"/>
+      <c r="O46" s="138"/>
+      <c r="P46" s="138"/>
       <c r="Q46" s="19"/>
       <c r="R46" s="19"/>
       <c r="S46" s="19"/>
@@ -6572,11 +6572,11 @@
       <c r="K47" s="94" t="s">
         <v>367</v>
       </c>
-      <c r="L47" s="143"/>
-      <c r="M47" s="144"/>
-      <c r="N47" s="144"/>
-      <c r="O47" s="144"/>
-      <c r="P47" s="144"/>
+      <c r="L47" s="137"/>
+      <c r="M47" s="138"/>
+      <c r="N47" s="138"/>
+      <c r="O47" s="138"/>
+      <c r="P47" s="138"/>
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
@@ -6610,11 +6610,11 @@
       <c r="K48" s="94" t="s">
         <v>371</v>
       </c>
-      <c r="L48" s="143"/>
-      <c r="M48" s="144"/>
-      <c r="N48" s="144"/>
-      <c r="O48" s="144"/>
-      <c r="P48" s="144"/>
+      <c r="L48" s="137"/>
+      <c r="M48" s="138"/>
+      <c r="N48" s="138"/>
+      <c r="O48" s="138"/>
+      <c r="P48" s="138"/>
       <c r="Q48" s="19"/>
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
@@ -6648,11 +6648,11 @@
       <c r="K49" s="94" t="s">
         <v>387</v>
       </c>
-      <c r="L49" s="143"/>
-      <c r="M49" s="144"/>
-      <c r="N49" s="144"/>
-      <c r="O49" s="144"/>
-      <c r="P49" s="144"/>
+      <c r="L49" s="137"/>
+      <c r="M49" s="138"/>
+      <c r="N49" s="138"/>
+      <c r="O49" s="138"/>
+      <c r="P49" s="138"/>
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
       <c r="S49" s="19"/>
@@ -6686,11 +6686,11 @@
       <c r="K50" s="94" t="s">
         <v>388</v>
       </c>
-      <c r="L50" s="143"/>
-      <c r="M50" s="144"/>
-      <c r="N50" s="144"/>
-      <c r="O50" s="144"/>
-      <c r="P50" s="144"/>
+      <c r="L50" s="137"/>
+      <c r="M50" s="138"/>
+      <c r="N50" s="138"/>
+      <c r="O50" s="138"/>
+      <c r="P50" s="138"/>
       <c r="Q50" s="19"/>
       <c r="R50" s="19"/>
       <c r="S50" s="19"/>
@@ -6722,11 +6722,11 @@
       <c r="K51" s="94" t="s">
         <v>389</v>
       </c>
-      <c r="L51" s="143"/>
-      <c r="M51" s="144"/>
-      <c r="N51" s="144"/>
-      <c r="O51" s="144"/>
-      <c r="P51" s="144"/>
+      <c r="L51" s="137"/>
+      <c r="M51" s="138"/>
+      <c r="N51" s="138"/>
+      <c r="O51" s="138"/>
+      <c r="P51" s="138"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
       <c r="S51" s="19"/>
@@ -6760,11 +6760,11 @@
       <c r="K52" s="94" t="s">
         <v>391</v>
       </c>
-      <c r="L52" s="143"/>
-      <c r="M52" s="144"/>
-      <c r="N52" s="144"/>
-      <c r="O52" s="144"/>
-      <c r="P52" s="144"/>
+      <c r="L52" s="137"/>
+      <c r="M52" s="138"/>
+      <c r="N52" s="138"/>
+      <c r="O52" s="138"/>
+      <c r="P52" s="138"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
       <c r="S52" s="19"/>
@@ -6798,11 +6798,11 @@
       <c r="K53" s="94" t="s">
         <v>390</v>
       </c>
-      <c r="L53" s="143"/>
-      <c r="M53" s="144"/>
-      <c r="N53" s="144"/>
-      <c r="O53" s="144"/>
-      <c r="P53" s="144"/>
+      <c r="L53" s="137"/>
+      <c r="M53" s="138"/>
+      <c r="N53" s="138"/>
+      <c r="O53" s="138"/>
+      <c r="P53" s="138"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
       <c r="S53" s="19"/>
@@ -6836,11 +6836,11 @@
       <c r="K54" s="94" t="s">
         <v>394</v>
       </c>
-      <c r="L54" s="143"/>
-      <c r="M54" s="144"/>
-      <c r="N54" s="144"/>
-      <c r="O54" s="144"/>
-      <c r="P54" s="144"/>
+      <c r="L54" s="137"/>
+      <c r="M54" s="138"/>
+      <c r="N54" s="138"/>
+      <c r="O54" s="138"/>
+      <c r="P54" s="138"/>
       <c r="Q54" s="19"/>
       <c r="R54" s="19"/>
       <c r="S54" s="19"/>
@@ -6874,11 +6874,11 @@
       <c r="K55" s="94" t="s">
         <v>394</v>
       </c>
-      <c r="L55" s="143"/>
-      <c r="M55" s="144"/>
-      <c r="N55" s="144"/>
-      <c r="O55" s="144"/>
-      <c r="P55" s="144"/>
+      <c r="L55" s="137"/>
+      <c r="M55" s="138"/>
+      <c r="N55" s="138"/>
+      <c r="O55" s="138"/>
+      <c r="P55" s="138"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
       <c r="S55" s="19"/>
@@ -6912,11 +6912,11 @@
       <c r="K56" s="94" t="s">
         <v>402</v>
       </c>
-      <c r="L56" s="143"/>
-      <c r="M56" s="144"/>
-      <c r="N56" s="144"/>
-      <c r="O56" s="144"/>
-      <c r="P56" s="144"/>
+      <c r="L56" s="137"/>
+      <c r="M56" s="138"/>
+      <c r="N56" s="138"/>
+      <c r="O56" s="138"/>
+      <c r="P56" s="138"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="19"/>
       <c r="S56" s="19"/>
@@ -6950,11 +6950,11 @@
       <c r="K57" s="94" t="s">
         <v>403</v>
       </c>
-      <c r="L57" s="143"/>
-      <c r="M57" s="144"/>
-      <c r="N57" s="144"/>
-      <c r="O57" s="144"/>
-      <c r="P57" s="144"/>
+      <c r="L57" s="137"/>
+      <c r="M57" s="138"/>
+      <c r="N57" s="138"/>
+      <c r="O57" s="138"/>
+      <c r="P57" s="138"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
       <c r="S57" s="19"/>
@@ -6988,11 +6988,11 @@
       <c r="K58" s="94" t="s">
         <v>405</v>
       </c>
-      <c r="L58" s="143"/>
-      <c r="M58" s="144"/>
-      <c r="N58" s="144"/>
-      <c r="O58" s="144"/>
-      <c r="P58" s="144"/>
+      <c r="L58" s="137"/>
+      <c r="M58" s="138"/>
+      <c r="N58" s="138"/>
+      <c r="O58" s="138"/>
+      <c r="P58" s="138"/>
       <c r="Q58" s="19"/>
       <c r="R58" s="19"/>
       <c r="S58" s="19"/>
@@ -7026,11 +7026,11 @@
       <c r="K59" s="94" t="s">
         <v>405</v>
       </c>
-      <c r="L59" s="143"/>
-      <c r="M59" s="144"/>
-      <c r="N59" s="144"/>
-      <c r="O59" s="144"/>
-      <c r="P59" s="144"/>
+      <c r="L59" s="137"/>
+      <c r="M59" s="138"/>
+      <c r="N59" s="138"/>
+      <c r="O59" s="138"/>
+      <c r="P59" s="138"/>
       <c r="Q59" s="19"/>
       <c r="R59" s="19"/>
       <c r="S59" s="19"/>
@@ -7064,11 +7064,11 @@
       <c r="K60" s="94" t="s">
         <v>413</v>
       </c>
-      <c r="L60" s="143"/>
-      <c r="M60" s="144"/>
-      <c r="N60" s="144"/>
-      <c r="O60" s="144"/>
-      <c r="P60" s="144"/>
+      <c r="L60" s="137"/>
+      <c r="M60" s="138"/>
+      <c r="N60" s="138"/>
+      <c r="O60" s="138"/>
+      <c r="P60" s="138"/>
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
       <c r="S60" s="19"/>
@@ -7102,11 +7102,11 @@
       <c r="K61" s="94" t="s">
         <v>414</v>
       </c>
-      <c r="L61" s="143"/>
-      <c r="M61" s="144"/>
-      <c r="N61" s="144"/>
-      <c r="O61" s="144"/>
-      <c r="P61" s="144"/>
+      <c r="L61" s="137"/>
+      <c r="M61" s="138"/>
+      <c r="N61" s="138"/>
+      <c r="O61" s="138"/>
+      <c r="P61" s="138"/>
       <c r="Q61" s="19"/>
       <c r="R61" s="19"/>
       <c r="S61" s="19"/>
@@ -7140,11 +7140,11 @@
       <c r="K62" s="94" t="s">
         <v>416</v>
       </c>
-      <c r="L62" s="143"/>
-      <c r="M62" s="144"/>
-      <c r="N62" s="144"/>
-      <c r="O62" s="144"/>
-      <c r="P62" s="144"/>
+      <c r="L62" s="137"/>
+      <c r="M62" s="138"/>
+      <c r="N62" s="138"/>
+      <c r="O62" s="138"/>
+      <c r="P62" s="138"/>
       <c r="Q62" s="19"/>
       <c r="R62" s="19"/>
       <c r="S62" s="19"/>
@@ -7178,11 +7178,11 @@
       <c r="K63" s="94" t="s">
         <v>420</v>
       </c>
-      <c r="L63" s="143"/>
-      <c r="M63" s="144"/>
-      <c r="N63" s="144"/>
-      <c r="O63" s="144"/>
-      <c r="P63" s="144"/>
+      <c r="L63" s="137"/>
+      <c r="M63" s="138"/>
+      <c r="N63" s="138"/>
+      <c r="O63" s="138"/>
+      <c r="P63" s="138"/>
       <c r="Q63" s="19"/>
       <c r="R63" s="19"/>
       <c r="S63" s="19"/>
@@ -7216,11 +7216,11 @@
       <c r="K64" s="94" t="s">
         <v>424</v>
       </c>
-      <c r="L64" s="143"/>
-      <c r="M64" s="144"/>
-      <c r="N64" s="144"/>
-      <c r="O64" s="144"/>
-      <c r="P64" s="144"/>
+      <c r="L64" s="137"/>
+      <c r="M64" s="138"/>
+      <c r="N64" s="138"/>
+      <c r="O64" s="138"/>
+      <c r="P64" s="138"/>
       <c r="Q64" s="19"/>
       <c r="R64" s="19"/>
       <c r="S64" s="19"/>
@@ -7254,11 +7254,11 @@
       <c r="K65" s="94" t="s">
         <v>424</v>
       </c>
-      <c r="L65" s="143"/>
-      <c r="M65" s="144"/>
-      <c r="N65" s="144"/>
-      <c r="O65" s="144"/>
-      <c r="P65" s="144"/>
+      <c r="L65" s="137"/>
+      <c r="M65" s="138"/>
+      <c r="N65" s="138"/>
+      <c r="O65" s="138"/>
+      <c r="P65" s="138"/>
       <c r="Q65" s="19"/>
       <c r="R65" s="19"/>
       <c r="S65" s="19"/>
@@ -7292,11 +7292,11 @@
       <c r="K66" s="94" t="s">
         <v>442</v>
       </c>
-      <c r="L66" s="143"/>
-      <c r="M66" s="144"/>
-      <c r="N66" s="144"/>
-      <c r="O66" s="144"/>
-      <c r="P66" s="144"/>
+      <c r="L66" s="137"/>
+      <c r="M66" s="138"/>
+      <c r="N66" s="138"/>
+      <c r="O66" s="138"/>
+      <c r="P66" s="138"/>
       <c r="Q66" s="19"/>
       <c r="R66" s="19"/>
     </row>
@@ -7328,11 +7328,11 @@
       <c r="K67" s="94" t="s">
         <v>442</v>
       </c>
-      <c r="L67" s="143"/>
-      <c r="M67" s="144"/>
-      <c r="N67" s="144"/>
-      <c r="O67" s="144"/>
-      <c r="P67" s="144"/>
+      <c r="L67" s="137"/>
+      <c r="M67" s="138"/>
+      <c r="N67" s="138"/>
+      <c r="O67" s="138"/>
+      <c r="P67" s="138"/>
       <c r="Q67" s="19"/>
       <c r="R67" s="19"/>
     </row>
@@ -7364,11 +7364,11 @@
       <c r="K68" s="94" t="s">
         <v>442</v>
       </c>
-      <c r="L68" s="143"/>
-      <c r="M68" s="144"/>
-      <c r="N68" s="144"/>
-      <c r="O68" s="144"/>
-      <c r="P68" s="144"/>
+      <c r="L68" s="137"/>
+      <c r="M68" s="138"/>
+      <c r="N68" s="138"/>
+      <c r="O68" s="138"/>
+      <c r="P68" s="138"/>
       <c r="Q68" s="19"/>
       <c r="R68" s="19"/>
     </row>
@@ -7400,11 +7400,11 @@
       <c r="K69" s="94" t="s">
         <v>444</v>
       </c>
-      <c r="L69" s="143"/>
-      <c r="M69" s="144"/>
-      <c r="N69" s="144"/>
-      <c r="O69" s="144"/>
-      <c r="P69" s="144"/>
+      <c r="L69" s="137"/>
+      <c r="M69" s="138"/>
+      <c r="N69" s="138"/>
+      <c r="O69" s="138"/>
+      <c r="P69" s="138"/>
       <c r="Q69" s="19"/>
       <c r="R69" s="19"/>
     </row>
@@ -7436,11 +7436,11 @@
       <c r="K70" s="94" t="s">
         <v>443</v>
       </c>
-      <c r="L70" s="143"/>
-      <c r="M70" s="144"/>
-      <c r="N70" s="144"/>
-      <c r="O70" s="144"/>
-      <c r="P70" s="144"/>
+      <c r="L70" s="137"/>
+      <c r="M70" s="138"/>
+      <c r="N70" s="138"/>
+      <c r="O70" s="138"/>
+      <c r="P70" s="138"/>
       <c r="Q70" s="19"/>
       <c r="R70" s="19"/>
       <c r="S70" s="19"/>
@@ -7474,11 +7474,11 @@
       <c r="K71" s="94" t="s">
         <v>447</v>
       </c>
-      <c r="L71" s="143"/>
-      <c r="M71" s="144"/>
-      <c r="N71" s="144"/>
-      <c r="O71" s="144"/>
-      <c r="P71" s="144"/>
+      <c r="L71" s="137"/>
+      <c r="M71" s="138"/>
+      <c r="N71" s="138"/>
+      <c r="O71" s="138"/>
+      <c r="P71" s="138"/>
       <c r="Q71" s="19"/>
       <c r="R71" s="19"/>
       <c r="S71" s="19"/>
@@ -7512,11 +7512,11 @@
       <c r="K72" s="94" t="s">
         <v>555</v>
       </c>
-      <c r="L72" s="143"/>
-      <c r="M72" s="144"/>
-      <c r="N72" s="144"/>
-      <c r="O72" s="144"/>
-      <c r="P72" s="144"/>
+      <c r="L72" s="137"/>
+      <c r="M72" s="138"/>
+      <c r="N72" s="138"/>
+      <c r="O72" s="138"/>
+      <c r="P72" s="138"/>
       <c r="Q72" s="19"/>
       <c r="R72" s="19"/>
       <c r="S72" s="19"/>
@@ -7550,11 +7550,11 @@
       <c r="K73" s="94" t="s">
         <v>556</v>
       </c>
-      <c r="L73" s="143"/>
-      <c r="M73" s="144"/>
-      <c r="N73" s="144"/>
-      <c r="O73" s="144"/>
-      <c r="P73" s="144"/>
+      <c r="L73" s="137"/>
+      <c r="M73" s="138"/>
+      <c r="N73" s="138"/>
+      <c r="O73" s="138"/>
+      <c r="P73" s="138"/>
       <c r="Q73" s="19"/>
       <c r="R73" s="19"/>
       <c r="S73" s="19"/>
@@ -7588,11 +7588,11 @@
       <c r="K74" s="94" t="s">
         <v>557</v>
       </c>
-      <c r="L74" s="143"/>
-      <c r="M74" s="144"/>
-      <c r="N74" s="144"/>
-      <c r="O74" s="144"/>
-      <c r="P74" s="144"/>
+      <c r="L74" s="137"/>
+      <c r="M74" s="138"/>
+      <c r="N74" s="138"/>
+      <c r="O74" s="138"/>
+      <c r="P74" s="138"/>
       <c r="Q74" s="19"/>
       <c r="R74" s="19"/>
       <c r="S74" s="19"/>
@@ -7626,11 +7626,11 @@
       <c r="K75" s="94" t="s">
         <v>558</v>
       </c>
-      <c r="L75" s="143"/>
-      <c r="M75" s="144"/>
-      <c r="N75" s="144"/>
-      <c r="O75" s="144"/>
-      <c r="P75" s="144"/>
+      <c r="L75" s="137"/>
+      <c r="M75" s="138"/>
+      <c r="N75" s="138"/>
+      <c r="O75" s="138"/>
+      <c r="P75" s="138"/>
       <c r="Q75" s="115"/>
       <c r="R75" s="115"/>
       <c r="S75" s="115"/>
@@ -7664,11 +7664,11 @@
       <c r="K76" s="94" t="s">
         <v>559</v>
       </c>
-      <c r="L76" s="143"/>
-      <c r="M76" s="144"/>
-      <c r="N76" s="144"/>
-      <c r="O76" s="144"/>
-      <c r="P76" s="144"/>
+      <c r="L76" s="137"/>
+      <c r="M76" s="138"/>
+      <c r="N76" s="138"/>
+      <c r="O76" s="138"/>
+      <c r="P76" s="138"/>
       <c r="Q76" s="115"/>
       <c r="R76" s="115"/>
       <c r="S76" s="115"/>
@@ -7702,11 +7702,11 @@
       <c r="K77" s="94" t="s">
         <v>560</v>
       </c>
-      <c r="L77" s="143"/>
-      <c r="M77" s="144"/>
-      <c r="N77" s="144"/>
-      <c r="O77" s="144"/>
-      <c r="P77" s="144"/>
+      <c r="L77" s="137"/>
+      <c r="M77" s="138"/>
+      <c r="N77" s="138"/>
+      <c r="O77" s="138"/>
+      <c r="P77" s="138"/>
       <c r="Q77" s="19"/>
       <c r="R77" s="19"/>
       <c r="S77" s="19"/>
@@ -7740,11 +7740,11 @@
       <c r="K78" s="94" t="s">
         <v>561</v>
       </c>
-      <c r="L78" s="143"/>
-      <c r="M78" s="144"/>
-      <c r="N78" s="144"/>
-      <c r="O78" s="144"/>
-      <c r="P78" s="144"/>
+      <c r="L78" s="137"/>
+      <c r="M78" s="138"/>
+      <c r="N78" s="138"/>
+      <c r="O78" s="138"/>
+      <c r="P78" s="138"/>
       <c r="Q78" s="19"/>
       <c r="R78" s="19"/>
       <c r="S78" s="19"/>
@@ -7778,11 +7778,11 @@
       <c r="K79" s="94" t="s">
         <v>562</v>
       </c>
-      <c r="L79" s="143"/>
-      <c r="M79" s="144"/>
-      <c r="N79" s="144"/>
-      <c r="O79" s="144"/>
-      <c r="P79" s="144"/>
+      <c r="L79" s="137"/>
+      <c r="M79" s="138"/>
+      <c r="N79" s="138"/>
+      <c r="O79" s="138"/>
+      <c r="P79" s="138"/>
       <c r="Q79" s="19"/>
       <c r="R79" s="19"/>
       <c r="S79" s="19"/>
@@ -7816,11 +7816,11 @@
       <c r="K80" s="94" t="s">
         <v>563</v>
       </c>
-      <c r="L80" s="143"/>
-      <c r="M80" s="144"/>
-      <c r="N80" s="144"/>
-      <c r="O80" s="144"/>
-      <c r="P80" s="144"/>
+      <c r="L80" s="137"/>
+      <c r="M80" s="138"/>
+      <c r="N80" s="138"/>
+      <c r="O80" s="138"/>
+      <c r="P80" s="138"/>
       <c r="Q80" s="19"/>
       <c r="R80" s="19"/>
       <c r="S80" s="19"/>
@@ -7854,11 +7854,11 @@
       <c r="K81" s="94" t="s">
         <v>564</v>
       </c>
-      <c r="L81" s="143"/>
-      <c r="M81" s="144"/>
-      <c r="N81" s="144"/>
-      <c r="O81" s="144"/>
-      <c r="P81" s="144"/>
+      <c r="L81" s="137"/>
+      <c r="M81" s="138"/>
+      <c r="N81" s="138"/>
+      <c r="O81" s="138"/>
+      <c r="P81" s="138"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="19"/>
       <c r="S81" s="19"/>
@@ -7892,11 +7892,11 @@
       <c r="K82" s="94" t="s">
         <v>565</v>
       </c>
-      <c r="L82" s="143"/>
-      <c r="M82" s="144"/>
-      <c r="N82" s="144"/>
-      <c r="O82" s="144"/>
-      <c r="P82" s="144"/>
+      <c r="L82" s="137"/>
+      <c r="M82" s="138"/>
+      <c r="N82" s="138"/>
+      <c r="O82" s="138"/>
+      <c r="P82" s="138"/>
       <c r="Q82" s="19"/>
       <c r="R82" s="19"/>
       <c r="S82" s="19"/>
@@ -7930,11 +7930,11 @@
       <c r="K83" s="94" t="s">
         <v>566</v>
       </c>
-      <c r="L83" s="143"/>
-      <c r="M83" s="144"/>
-      <c r="N83" s="144"/>
-      <c r="O83" s="144"/>
-      <c r="P83" s="144"/>
+      <c r="L83" s="137"/>
+      <c r="M83" s="138"/>
+      <c r="N83" s="138"/>
+      <c r="O83" s="138"/>
+      <c r="P83" s="138"/>
       <c r="Q83" s="19"/>
       <c r="R83" s="19"/>
       <c r="S83" s="19"/>
@@ -9792,44 +9792,28 @@
   </sheetData>
   <autoFilter ref="B12:K13" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="69">
-    <mergeCell ref="L80:P80"/>
-    <mergeCell ref="L81:P81"/>
-    <mergeCell ref="L82:P82"/>
-    <mergeCell ref="L83:P83"/>
-    <mergeCell ref="L77:P77"/>
-    <mergeCell ref="L78:P78"/>
-    <mergeCell ref="L79:P79"/>
-    <mergeCell ref="L70:P70"/>
-    <mergeCell ref="L71:P71"/>
-    <mergeCell ref="L72:P72"/>
-    <mergeCell ref="L73:P73"/>
-    <mergeCell ref="L74:P74"/>
-    <mergeCell ref="L75:P76"/>
-    <mergeCell ref="L65:P65"/>
-    <mergeCell ref="L66:P66"/>
-    <mergeCell ref="L67:P67"/>
-    <mergeCell ref="L68:P68"/>
-    <mergeCell ref="L69:P69"/>
-    <mergeCell ref="L60:P60"/>
-    <mergeCell ref="L61:P61"/>
-    <mergeCell ref="L62:P62"/>
-    <mergeCell ref="L63:P63"/>
-    <mergeCell ref="L64:P64"/>
-    <mergeCell ref="L55:P55"/>
-    <mergeCell ref="L56:P56"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="L58:P58"/>
-    <mergeCell ref="L59:P59"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="L51:P51"/>
-    <mergeCell ref="L52:P52"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="L48:P48"/>
-    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="L35:P35"/>
     <mergeCell ref="L41:P41"/>
     <mergeCell ref="L42:P42"/>
     <mergeCell ref="L43:P43"/>
@@ -9839,28 +9823,44 @@
     <mergeCell ref="L38:P38"/>
     <mergeCell ref="L39:P39"/>
     <mergeCell ref="L40:P40"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="L46:P46"/>
+    <mergeCell ref="L47:P47"/>
+    <mergeCell ref="L48:P48"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="L51:P51"/>
+    <mergeCell ref="L52:P52"/>
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="L55:P55"/>
+    <mergeCell ref="L56:P56"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="L58:P58"/>
+    <mergeCell ref="L59:P59"/>
+    <mergeCell ref="L60:P60"/>
+    <mergeCell ref="L61:P61"/>
+    <mergeCell ref="L62:P62"/>
+    <mergeCell ref="L63:P63"/>
+    <mergeCell ref="L64:P64"/>
+    <mergeCell ref="L75:P76"/>
+    <mergeCell ref="L65:P65"/>
+    <mergeCell ref="L66:P66"/>
+    <mergeCell ref="L67:P67"/>
+    <mergeCell ref="L68:P68"/>
+    <mergeCell ref="L69:P69"/>
+    <mergeCell ref="L70:P70"/>
+    <mergeCell ref="L71:P71"/>
+    <mergeCell ref="L72:P72"/>
+    <mergeCell ref="L73:P73"/>
+    <mergeCell ref="L74:P74"/>
+    <mergeCell ref="L80:P80"/>
+    <mergeCell ref="L81:P81"/>
+    <mergeCell ref="L82:P82"/>
+    <mergeCell ref="L83:P83"/>
+    <mergeCell ref="L77:P77"/>
+    <mergeCell ref="L78:P78"/>
+    <mergeCell ref="L79:P79"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
